--- a/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
+++ b/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Project Planner</t>
   </si>
@@ -154,44 +154,80 @@
     <t>Time Class - R</t>
   </si>
   <si>
-    <t>Researcher Class - S</t>
-  </si>
-  <si>
-    <t>Color Class - R</t>
-  </si>
-  <si>
-    <t>Virus Class  - YZ</t>
-  </si>
-  <si>
-    <t>User Interface - WQ</t>
-  </si>
-  <si>
     <t>Sound - A</t>
   </si>
   <si>
-    <t>Location Class - A seeprogress</t>
-  </si>
-  <si>
-    <t>Infection Class - R</t>
-  </si>
-  <si>
-    <t>Money Matter Class - WQ</t>
-  </si>
-  <si>
-    <t>Medicine Class - YZ</t>
-  </si>
-  <si>
-    <t>Texture Class - volunteer</t>
-  </si>
-  <si>
-    <t>win Lose - volunteer</t>
+    <t>Entity Class - A</t>
+  </si>
+  <si>
+    <t>Camera - S</t>
+  </si>
+  <si>
+    <t>Buyer Class - R</t>
+  </si>
+  <si>
+    <t>Weather Class - R</t>
+  </si>
+  <si>
+    <t>LUA</t>
+  </si>
+  <si>
+    <t>Speech Bubble generation</t>
+  </si>
+  <si>
+    <t>Competitor AI</t>
+  </si>
+  <si>
+    <t>Customer Loss rate</t>
+  </si>
+  <si>
+    <t>Multiple Weathers</t>
+  </si>
+  <si>
+    <t>Customer Path finding</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>Buying During Game</t>
+  </si>
+  <si>
+    <t>Negotiation</t>
+  </si>
+  <si>
+    <t>User Interface - YT</t>
+  </si>
+  <si>
+    <t>Money Class - YT</t>
+  </si>
+  <si>
+    <t>Forecast Class - WQ</t>
+  </si>
+  <si>
+    <t>Save and Load -  WQ</t>
+  </si>
+  <si>
+    <t>Win / Lose Conidtion - A</t>
+  </si>
+  <si>
+    <t>Texture Class - All</t>
+  </si>
+  <si>
+    <t>21 Days (Including Weekends)</t>
+  </si>
+  <si>
+    <t>Good to Have:</t>
+  </si>
+  <si>
+    <t>Location Class -  A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -276,8 +312,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +446,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,8 +507,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -463,7 +530,35 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -478,19 +573,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -604,6 +755,846 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -629,7 +1620,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="14"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,10 +1905,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ34"/>
+  <dimension ref="B2:BQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -932,22 +1923,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
@@ -956,7 +1947,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -985,12 +1976,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1050,14 +2041,14 @@
         <v>9</v>
       </c>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="N7" s="1">
+        <v>17</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H8" s="3"/>
       <c r="I8" s="3">
         <v>1</v>
@@ -1122,123 +2113,45 @@
       <c r="AC8" s="3">
         <v>21</v>
       </c>
-      <c r="AD8" s="3">
-        <v>22</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>24</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>26</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>27</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>28</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>29</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>30</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>31</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>32</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>33</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>34</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>35</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>36</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>37</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>38</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>39</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>40</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>41</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>42</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>43</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>44</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>45</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>46</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>47</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>48</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>49</v>
-      </c>
-      <c r="BF8" s="3">
-        <v>50</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>51</v>
-      </c>
-      <c r="BH8" s="3">
-        <v>52</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>53</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>54</v>
-      </c>
-      <c r="BK8" s="3">
-        <v>55</v>
-      </c>
-      <c r="BL8" s="3">
-        <v>56</v>
-      </c>
-      <c r="BM8" s="3">
-        <v>57</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>58</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>59</v>
-      </c>
-      <c r="BP8" s="3">
-        <v>60</v>
-      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
       <c r="BQ8" s="1"/>
     </row>
     <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1258,18 +2171,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
@@ -1278,18 +2191,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" s="16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D11" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1298,38 +2211,38 @@
         <v>0</v>
       </c>
       <c r="G11" s="17">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="16">
         <v>1</v>
       </c>
       <c r="D12" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
@@ -1338,18 +2251,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="17">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7</v>
       </c>
       <c r="D14" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1358,18 +2271,18 @@
         <v>0</v>
       </c>
       <c r="G14" s="17">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>27</v>
+      <c r="B15" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1378,12 +2291,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>20</v>
+      <c r="B16" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
@@ -1398,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="16">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16">
         <v>5</v>
       </c>
-      <c r="D17" s="16">
-        <v>3</v>
-      </c>
       <c r="E17" s="16">
         <v>0</v>
       </c>
@@ -1418,18 +2331,18 @@
         <v>0</v>
       </c>
       <c r="G17" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
       </c>
       <c r="D18" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="16">
         <v>0</v>
@@ -1438,15 +2351,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="18">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="16">
+        <v>11</v>
       </c>
       <c r="D19" s="16">
         <v>3</v>
@@ -1458,189 +2371,309 @@
         <v>0</v>
       </c>
       <c r="G19" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="23"/>
+    </row>
+    <row r="20" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C20" s="16">
+        <v>9</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="16">
+        <v>7</v>
+      </c>
+      <c r="D21" s="16">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D22" s="16">
         <v>3</v>
       </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>4</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+    <row r="26" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
       <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-    </row>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP34">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="I9:BP18 I20:BP35 I19:AC19">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BP35">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B36:BP36">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>I$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO19">
+    <cfRule type="expression" dxfId="7" priority="37">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="38">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="39">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="40">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="42">
+      <formula>AJ$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="43">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="44">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
+++ b/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -513,11 +513,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -530,120 +530,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -897,704 +784,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1908,7 +1097,7 @@
   <dimension ref="B2:BQ35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1923,22 +1112,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1976,12 +1165,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -2165,13 +1354,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="17">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2185,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -2285,13 +1474,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,13 +1494,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2325,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2345,13 +1534,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="17">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2373,7 +1562,7 @@
       <c r="G19" s="17">
         <v>0</v>
       </c>
-      <c r="BO19" s="23"/>
+      <c r="BO19" s="22"/>
     </row>
     <row r="20" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
@@ -2426,13 +1615,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2615,38 +1804,38 @@
     <mergeCell ref="B2:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP18 I20:BP35 I19:AC19">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:BP36">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
+++ b/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
@@ -1097,7 +1097,7 @@
   <dimension ref="B2:BQ35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1434,13 +1434,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1517,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
+++ b/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
@@ -1097,7 +1097,7 @@
   <dimension ref="B2:BQ35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="17">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1377,10 +1377,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1454,13 +1454,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1477,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="17">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1517,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G17" s="17">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1554,13 +1554,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO19" s="22"/>
     </row>
@@ -1595,13 +1595,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1618,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
+++ b/SP4 Proposal and FrameWork/SP4 Gantt Project Planner v1.xlsx
@@ -190,9 +190,6 @@
     <t>Encryption</t>
   </si>
   <si>
-    <t>Buying During Game</t>
-  </si>
-  <si>
     <t>Negotiation</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>Location Class -  A</t>
+  </si>
+  <si>
+    <t>Buying During Game -- WQ</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1096,8 @@
   </sheetPr>
   <dimension ref="B2:BQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1234,7 +1234,7 @@
         <v>17</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1385,7 +1385,7 @@
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="16">
         <v>12</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="16">
         <v>10</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="17" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="16">
         <v>3</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="20" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="16">
         <v>9</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="21" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="16">
         <v>7</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="22" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
@@ -1628,7 +1628,7 @@
     <row r="24" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="26" spans="2:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -1782,14 +1782,14 @@
     </row>
     <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" s="16">
         <v>0</v>
